--- a/me-docs/21.Cau-hinh-kieu-hien-thi-cua-Category.xlsx
+++ b/me-docs/21.Cau-hinh-kieu-hien-thi-cua-Category.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC30CCE8-A200-472C-9F3F-D4B87DC129CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619E6944-65FE-4185-B03D-340DCF16A933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fix image" sheetId="1" r:id="rId1"/>
+    <sheet name="get category" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>views\news\pages\home\index.blade.php</t>
   </si>
@@ -49,6 +50,12 @@
   </si>
   <si>
     <t>Check browser</t>
+  </si>
+  <si>
+    <t>app\Http\Controllers\HomeController.php</t>
+  </si>
+  <si>
+    <t>app\Models\CategoryModel.php</t>
   </si>
 </sst>
 </file>
@@ -493,6 +500,143 @@
         <a:xfrm>
           <a:off x="609600" y="44005500"/>
           <a:ext cx="10934700" cy="1529214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>598781</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>132595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D77FCC80-FB28-4233-88E3-73CA70FA21BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="10352381" cy="6038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>341714</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>94500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D12A84-6E25-4D19-A573-FEA9191D76C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6858000"/>
+          <a:ext cx="9485714" cy="6000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>56228</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>152143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AFE1099-DFF5-408D-A19E-9B2746897A95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13144500"/>
+          <a:ext cx="7371428" cy="2057143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -769,7 +913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+    <sheetView topLeftCell="A223" workbookViewId="0">
       <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
@@ -819,4 +963,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94F8764-B822-49D4-AC28-408A5DAF175E}">
+  <dimension ref="A2:A69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/21.Cau-hinh-kieu-hien-thi-cua-Category.xlsx
+++ b/me-docs/21.Cau-hinh-kieu-hien-thi-cua-Category.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619E6944-65FE-4185-B03D-340DCF16A933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED256A29-6735-4C77-B29E-7C9B8A94511A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fix image" sheetId="1" r:id="rId1"/>
     <sheet name="get category" sheetId="2" r:id="rId2"/>
+    <sheet name="show display" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>views\news\pages\home\index.blade.php</t>
   </si>
@@ -56,6 +57,15 @@
   </si>
   <si>
     <t>app\Models\CategoryModel.php</t>
+  </si>
+  <si>
+    <t>config\zvn.php</t>
+  </si>
+  <si>
+    <t>app\Helpers\Template.php</t>
+  </si>
+  <si>
+    <t>resources\views\admin\pages\category\list.blade.php</t>
   </si>
 </sst>
 </file>
@@ -637,6 +647,231 @@
         <a:xfrm>
           <a:off x="609600" y="13144500"/>
           <a:ext cx="7371428" cy="2057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>122743</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C802E59-DA8F-4D0C-935B-BE836B532430}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="8657143" cy="2038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>141409</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>75714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC35DBE-4C5B-4167-B800-B40CECFA7361}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2857500"/>
+          <a:ext cx="11723809" cy="3885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>29307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB243E9-1581-4EE5-9A79-8DEED374F4A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="7048500"/>
+          <a:ext cx="11430000" cy="1934307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>351009</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>37333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C987DD45-28FC-4723-8348-54492EE60B4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9334500"/>
+          <a:ext cx="11323809" cy="6133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>117060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E63235-3FF0-4B00-93DC-CAA382D950F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="15811500"/>
+          <a:ext cx="11410950" cy="5641560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -969,7 +1204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94F8764-B822-49D4-AC28-408A5DAF175E}">
   <dimension ref="A2:A69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
@@ -994,4 +1229,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7A33E2-B3D9-4738-B7D4-17460B3A93FE}">
+  <dimension ref="A2:A83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/21.Cau-hinh-kieu-hien-thi-cua-Category.xlsx
+++ b/me-docs/21.Cau-hinh-kieu-hien-thi-cua-Category.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED256A29-6735-4C77-B29E-7C9B8A94511A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E055032-DA08-4585-8202-57086DFCBD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fix image" sheetId="1" r:id="rId1"/>
     <sheet name="get category" sheetId="2" r:id="rId2"/>
     <sheet name="show display" sheetId="3" r:id="rId3"/>
+    <sheet name="change display" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>views\news\pages\home\index.blade.php</t>
   </si>
@@ -66,6 +67,21 @@
   </si>
   <si>
     <t>resources\views\admin\pages\category\list.blade.php</t>
+  </si>
+  <si>
+    <t>resources\lang\en\notify.php</t>
+  </si>
+  <si>
+    <t>routes\web.php</t>
+  </si>
+  <si>
+    <t>public\admin\js\my-js.js</t>
+  </si>
+  <si>
+    <t>Http\Controllers\CategoryController.php</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -872,6 +888,407 @@
         <a:xfrm>
           <a:off x="609601" y="15811500"/>
           <a:ext cx="11410950" cy="5641560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>284419</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8A8995-82FD-4604-B244-8C783DDB909B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="10647619" cy="3266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>513295</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>37809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A278C7E5-4272-4B87-B365-C6863F5DD6ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4000500"/>
+          <a:ext cx="8438095" cy="2323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>456152</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAEB608C-F6E6-4106-A89B-FA5671B9DF76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6667500"/>
+          <a:ext cx="8380952" cy="1047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>560686</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>18810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C1C4CB5-2946-45BC-B096-ED81B6B6DD37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7810500"/>
+          <a:ext cx="10314286" cy="1923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>322438</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>75905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9268DF6B-09FC-408B-ADC0-F50653F75016}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10096500"/>
+          <a:ext cx="11295238" cy="2361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>332038</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F094CE-7ED2-4B1C-8FEE-B7B05C1780B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4000500"/>
+          <a:ext cx="10695238" cy="3038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>417905</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>47143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21122DF4-C67F-4AB0-9489-7B85F150D403}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16573500"/>
+          <a:ext cx="9561905" cy="3857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>560541</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A617A1CD-D03E-4278-A5CF-38FCA04A9A81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="20955001"/>
+          <a:ext cx="11533341" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>3923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C50DD50-F1B7-4EBC-9D36-3FE6E967671B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="27051000"/>
+          <a:ext cx="10896600" cy="5147423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1235,7 +1652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7A33E2-B3D9-4738-B7D4-17460B3A93FE}">
   <dimension ref="A2:A83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
@@ -1270,4 +1687,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99746D4E-B75E-4A91-9152-ED6EC2A72273}">
+  <dimension ref="A2:B142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/21.Cau-hinh-kieu-hien-thi-cua-Category.xlsx
+++ b/me-docs/21.Cau-hinh-kieu-hien-thi-cua-Category.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E055032-DA08-4585-8202-57086DFCBD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8905166-AB9F-4E0E-94BB-4B9AE1C4D567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fix image" sheetId="1" r:id="rId1"/>
     <sheet name="get category" sheetId="2" r:id="rId2"/>
     <sheet name="show display" sheetId="3" r:id="rId3"/>
     <sheet name="change display" sheetId="4" r:id="rId4"/>
+    <sheet name="show category" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>views\news\pages\home\index.blade.php</t>
   </si>
@@ -82,6 +83,15 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>resources\views\news\pages\home\child-index\category.blade.php</t>
+  </si>
+  <si>
+    <t>views\news\pages\home\child-index\category_list.blade.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\pages\home\child-index\category_grid.blade.php</t>
   </si>
 </sst>
 </file>
@@ -1289,6 +1299,231 @@
         <a:xfrm>
           <a:off x="609601" y="27051000"/>
           <a:ext cx="10896600" cy="5147423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>456228</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>132976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A481A0C4-41D3-4BFF-B94C-EBFD54FEDDA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="7771428" cy="2990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>132343</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{990A4BEA-45BC-4AC0-B150-A5705DC622A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3810000"/>
+          <a:ext cx="8057143" cy="1885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>189028</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>46857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54087472-C0CB-4F85-8DD4-44F3637A2D69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6096000"/>
+          <a:ext cx="11771428" cy="6142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>198552</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>56381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644D7CBD-4C70-4585-B15C-23E356B4488E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12573000"/>
+          <a:ext cx="11780952" cy="6152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>181619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D22E87-6115-42C9-913B-82A5DB9F52A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="19050000"/>
+          <a:ext cx="11506200" cy="5706119"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1693,7 +1928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99746D4E-B75E-4A91-9152-ED6EC2A72273}">
   <dimension ref="A2:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+    <sheetView topLeftCell="A151" workbookViewId="0">
       <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
@@ -1743,4 +1978,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EF0322-AE8B-4C21-AC27-9584043978AA}">
+  <dimension ref="A2:A100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>